--- a/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,9 +319,6 @@
     <t>equipmentType</t>
   </si>
   <si>
-    <t>typeEquipement : JDV-J18-EquipementSpecifique-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:equipmentType.id</t>
   </si>
   <si>
@@ -388,13 +385,13 @@
 </t>
   </si>
   <si>
+    <t>typeEquipement</t>
+  </si>
+  <si>
     <t>Extension.extension:nbInService</t>
   </si>
   <si>
     <t>nbInService</t>
-  </si>
-  <si>
-    <t>nbEquipementEnService</t>
   </si>
   <si>
     <t>Extension.extension:nbInService.id</t>
@@ -411,6 +408,9 @@
   <si>
     <t xml:space="preserve">integer
 </t>
+  </si>
+  <si>
+    <t>nbEquipementEnService</t>
   </si>
   <si>
     <t>Extension.extension:ror-location-equipment-limit</t>
@@ -1325,15 +1325,15 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1436,10 +1436,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1542,10 +1542,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1568,16 +1568,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1627,7 +1627,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>84</v>
@@ -1642,7 +1642,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1676,13 +1676,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1709,29 +1709,29 @@
         <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1743,13 +1743,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -1857,15 +1857,15 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1968,10 +1968,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2074,10 +2074,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2100,16 +2100,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2159,7 +2159,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
@@ -2174,7 +2174,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2208,13 +2208,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2265,7 +2265,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2277,13 +2277,13 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -2396,10 +2396,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2422,16 +2422,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2481,7 +2481,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>84</v>
@@ -2496,7 +2496,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -2504,10 +2504,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2533,10 +2533,10 @@
         <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2587,7 +2587,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -2599,10 +2599,10 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-location-equipment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
